--- a/project/CV/CV_1.xlsx
+++ b/project/CV/CV_1.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,430 +498,430 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adams</t>
+          <t>acadia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>504848</v>
+        <v>833016</v>
       </c>
       <c r="D2" t="n">
-        <v>11708</v>
+        <v>26445</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F2" t="n">
-        <v>42001</v>
+        <v>22001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.039</v>
+        <v>0.122</v>
       </c>
       <c r="H2" t="n">
-        <v>0.034</v>
+        <v>0.111</v>
       </c>
       <c r="I2" t="n">
-        <v>0.083</v>
+        <v>0.138</v>
       </c>
       <c r="J2" t="n">
-        <v>0.238</v>
+        <v>0.265</v>
       </c>
       <c r="K2" t="n">
-        <v>0.606</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>allegheny</t>
+          <t>allen</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6126126</v>
+        <v>420050</v>
       </c>
       <c r="D3" t="n">
-        <v>145440</v>
+        <v>12692</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F3" t="n">
-        <v>42003</v>
+        <v>22003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.017</v>
+        <v>0.196</v>
       </c>
       <c r="H3" t="n">
-        <v>0.022</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.035</v>
+        <v>0.118</v>
       </c>
       <c r="J3" t="n">
-        <v>0.165</v>
+        <v>0.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7609999999999999</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>armstrong</t>
+          <t>ascension</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>349441</v>
+        <v>1218930</v>
       </c>
       <c r="D4" t="n">
-        <v>8603</v>
+        <v>26558</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F4" t="n">
-        <v>42005</v>
+        <v>22005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.027</v>
+        <v>0.049</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07400000000000001</v>
+        <v>0.092</v>
       </c>
       <c r="I4" t="n">
-        <v>0.159</v>
+        <v>0.142</v>
       </c>
       <c r="J4" t="n">
-        <v>0.173</v>
+        <v>0.148</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>beaver</t>
+          <t>assumption</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>967377</v>
+        <v>236785</v>
       </c>
       <c r="D5" t="n">
-        <v>41835</v>
+        <v>6208</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F5" t="n">
-        <v>42007</v>
+        <v>22007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.015</v>
+        <v>0.079</v>
       </c>
       <c r="H5" t="n">
-        <v>0.023</v>
+        <v>0.034</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1</v>
+        <v>0.213</v>
       </c>
       <c r="J5" t="n">
-        <v>0.137</v>
+        <v>0.206</v>
       </c>
       <c r="K5" t="n">
-        <v>0.725</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bedford</t>
+          <t>avoyelles</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>277767</v>
+        <v>429718</v>
       </c>
       <c r="D6" t="n">
-        <v>8132</v>
+        <v>14604</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F6" t="n">
-        <v>42009</v>
+        <v>22009</v>
       </c>
       <c r="G6" t="n">
-        <v>0.014</v>
+        <v>0.13</v>
       </c>
       <c r="H6" t="n">
-        <v>0.111</v>
+        <v>0.092</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1</v>
+        <v>0.073</v>
       </c>
       <c r="J6" t="n">
-        <v>0.205</v>
+        <v>0.246</v>
       </c>
       <c r="K6" t="n">
-        <v>0.57</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>berks</t>
+          <t>beauregard</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3263407</v>
+        <v>300519</v>
       </c>
       <c r="D7" t="n">
-        <v>125413</v>
+        <v>9164</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F7" t="n">
-        <v>42011</v>
+        <v>22011</v>
       </c>
       <c r="G7" t="n">
-        <v>0.036</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.012</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06</v>
+        <v>0.169</v>
       </c>
       <c r="J7" t="n">
-        <v>0.174</v>
+        <v>0.191</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7190000000000001</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>blair</t>
+          <t>bienville</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>747658</v>
+        <v>175093</v>
       </c>
       <c r="D8" t="n">
-        <v>16422</v>
+        <v>10332</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F8" t="n">
-        <v>42013</v>
+        <v>22013</v>
       </c>
       <c r="G8" t="n">
-        <v>0.041</v>
+        <v>0.078</v>
       </c>
       <c r="H8" t="n">
-        <v>0.132</v>
+        <v>0.052</v>
       </c>
       <c r="I8" t="n">
-        <v>0.083</v>
+        <v>0.17</v>
       </c>
       <c r="J8" t="n">
-        <v>0.249</v>
+        <v>0.291</v>
       </c>
       <c r="K8" t="n">
-        <v>0.495</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>bradford</t>
+          <t>bossier</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>304547</v>
+        <v>1232235</v>
       </c>
       <c r="D9" t="n">
-        <v>5831</v>
+        <v>31506</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F9" t="n">
-        <v>42015</v>
+        <v>22015</v>
       </c>
       <c r="G9" t="n">
-        <v>0.042</v>
+        <v>0.068</v>
       </c>
       <c r="H9" t="n">
-        <v>0.017</v>
+        <v>0.096</v>
       </c>
       <c r="I9" t="n">
-        <v>0.051</v>
+        <v>0.144</v>
       </c>
       <c r="J9" t="n">
-        <v>0.194</v>
+        <v>0.225</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6970000000000001</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bucks</t>
+          <t>caddo</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4093437</v>
+        <v>2835610</v>
       </c>
       <c r="D10" t="n">
-        <v>190573</v>
+        <v>104686</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F10" t="n">
-        <v>42017</v>
+        <v>22017</v>
       </c>
       <c r="G10" t="n">
-        <v>0.014</v>
+        <v>0.058</v>
       </c>
       <c r="H10" t="n">
-        <v>0.018</v>
+        <v>0.079</v>
       </c>
       <c r="I10" t="n">
-        <v>0.032</v>
+        <v>0.158</v>
       </c>
       <c r="J10" t="n">
-        <v>0.131</v>
+        <v>0.209</v>
       </c>
       <c r="K10" t="n">
-        <v>0.805</v>
+        <v>0.4970000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>butler</t>
+          <t>calcasieu</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>943960</v>
+        <v>2240223</v>
       </c>
       <c r="D11" t="n">
-        <v>21211</v>
+        <v>52250</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F11" t="n">
-        <v>42019</v>
+        <v>22019</v>
       </c>
       <c r="G11" t="n">
-        <v>0.035</v>
+        <v>0.102</v>
       </c>
       <c r="H11" t="n">
-        <v>0.062</v>
+        <v>0.139</v>
       </c>
       <c r="I11" t="n">
-        <v>0.062</v>
+        <v>0.077</v>
       </c>
       <c r="J11" t="n">
-        <v>0.194</v>
+        <v>0.212</v>
       </c>
       <c r="K11" t="n">
-        <v>0.647</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cambria</t>
+          <t>caldwell</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>800719</v>
+        <v>118529</v>
       </c>
       <c r="D12" t="n">
-        <v>20954</v>
+        <v>1967</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F12" t="n">
-        <v>42021</v>
+        <v>22021</v>
       </c>
       <c r="G12" t="n">
-        <v>0.026</v>
+        <v>0.102</v>
       </c>
       <c r="H12" t="n">
-        <v>0.062</v>
+        <v>0.061</v>
       </c>
       <c r="I12" t="n">
-        <v>0.153</v>
+        <v>0.098</v>
       </c>
       <c r="J12" t="n">
-        <v>0.228</v>
+        <v>0.241</v>
       </c>
       <c r="K12" t="n">
-        <v>0.53</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="13">
@@ -932,2180 +932,2063 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13450</v>
+        <v>61648</v>
       </c>
       <c r="D13" t="n">
-        <v>285</v>
+        <v>504</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F13" t="n">
-        <v>42023</v>
+        <v>22023</v>
       </c>
       <c r="G13" t="n">
-        <v>0.147</v>
+        <v>0.08900000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0.014</v>
+        <v>0.127</v>
       </c>
       <c r="I13" t="n">
-        <v>0.048</v>
+        <v>0.079</v>
       </c>
       <c r="J13" t="n">
-        <v>0.142</v>
+        <v>0.201</v>
       </c>
       <c r="K13" t="n">
-        <v>0.649</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>catahoula</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>330691</v>
+        <v>131746</v>
       </c>
       <c r="D14" t="n">
-        <v>13365</v>
+        <v>3507</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F14" t="n">
-        <v>42025</v>
+        <v>22025</v>
       </c>
       <c r="G14" t="n">
-        <v>0.013</v>
+        <v>0.11</v>
       </c>
       <c r="H14" t="n">
-        <v>0.062</v>
+        <v>0.056</v>
       </c>
       <c r="I14" t="n">
-        <v>0.015</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="J14" t="n">
-        <v>0.145</v>
+        <v>0.147</v>
       </c>
       <c r="K14" t="n">
-        <v>0.764</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>centre</t>
+          <t>claiborne</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1040145</v>
+        <v>154292</v>
       </c>
       <c r="D15" t="n">
-        <v>13460</v>
+        <v>6434</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F15" t="n">
-        <v>42027</v>
+        <v>22027</v>
       </c>
       <c r="G15" t="n">
-        <v>0.017</v>
+        <v>0.146</v>
       </c>
       <c r="H15" t="n">
-        <v>0.013</v>
+        <v>0.068</v>
       </c>
       <c r="I15" t="n">
-        <v>0.076</v>
+        <v>0.04</v>
       </c>
       <c r="J15" t="n">
-        <v>0.101</v>
+        <v>0.273</v>
       </c>
       <c r="K15" t="n">
-        <v>0.792</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>chester</t>
+          <t>concordia</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2816696</v>
+        <v>186152</v>
       </c>
       <c r="D16" t="n">
-        <v>113067</v>
+        <v>5379</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F16" t="n">
-        <v>42029</v>
+        <v>22029</v>
       </c>
       <c r="G16" t="n">
-        <v>0.006</v>
+        <v>0.11</v>
       </c>
       <c r="H16" t="n">
-        <v>0.022</v>
+        <v>0.104</v>
       </c>
       <c r="I16" t="n">
-        <v>0.038</v>
+        <v>0.112</v>
       </c>
       <c r="J16" t="n">
-        <v>0.113</v>
+        <v>0.095</v>
       </c>
       <c r="K16" t="n">
-        <v>0.82</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>clarion</t>
+          <t>de soto</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>183899</v>
+        <v>290371</v>
       </c>
       <c r="D17" t="n">
-        <v>4111</v>
+        <v>9856</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F17" t="n">
-        <v>42031</v>
+        <v>22031</v>
       </c>
       <c r="G17" t="n">
-        <v>0.057</v>
+        <v>0.035</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03</v>
+        <v>0.075</v>
       </c>
       <c r="I17" t="n">
-        <v>0.152</v>
+        <v>0.132</v>
       </c>
       <c r="J17" t="n">
-        <v>0.155</v>
+        <v>0.162</v>
       </c>
       <c r="K17" t="n">
-        <v>0.605</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>clearfield</t>
+          <t>east baton rouge</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>376715</v>
+        <v>4381592</v>
       </c>
       <c r="D18" t="n">
-        <v>4962</v>
+        <v>122781</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F18" t="n">
-        <v>42033</v>
+        <v>22033</v>
       </c>
       <c r="G18" t="n">
-        <v>0.051</v>
+        <v>0.052</v>
       </c>
       <c r="H18" t="n">
-        <v>0.055</v>
+        <v>0.031</v>
       </c>
       <c r="I18" t="n">
-        <v>0.176</v>
+        <v>0.09</v>
       </c>
       <c r="J18" t="n">
-        <v>0.206</v>
+        <v>0.183</v>
       </c>
       <c r="K18" t="n">
-        <v>0.512</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>clinton</t>
+          <t>east carroll</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>181028</v>
+        <v>166468</v>
       </c>
       <c r="D19" t="n">
-        <v>3386</v>
+        <v>1827</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F19" t="n">
-        <v>42035</v>
+        <v>22035</v>
       </c>
       <c r="G19" t="n">
-        <v>0.014</v>
+        <v>0.022</v>
       </c>
       <c r="H19" t="n">
-        <v>0.024</v>
+        <v>0.046</v>
       </c>
       <c r="I19" t="n">
-        <v>0.077</v>
+        <v>0.121</v>
       </c>
       <c r="J19" t="n">
-        <v>0.19</v>
+        <v>0.137</v>
       </c>
       <c r="K19" t="n">
-        <v>0.696</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>columbia</t>
+          <t>east feliciana</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>375969</v>
+        <v>397897</v>
       </c>
       <c r="D20" t="n">
-        <v>13880</v>
+        <v>17643</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F20" t="n">
-        <v>42037</v>
+        <v>22037</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02</v>
+        <v>0.067</v>
       </c>
       <c r="H20" t="n">
-        <v>0.046</v>
+        <v>0.053</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05</v>
+        <v>0.095</v>
       </c>
       <c r="J20" t="n">
-        <v>0.163</v>
+        <v>0.366</v>
       </c>
       <c r="K20" t="n">
-        <v>0.721</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>crawford</t>
+          <t>evangeline</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>421653</v>
+        <v>377974</v>
       </c>
       <c r="D21" t="n">
-        <v>6980</v>
+        <v>8266</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F21" t="n">
-        <v>42039</v>
+        <v>22039</v>
       </c>
       <c r="G21" t="n">
-        <v>0.024</v>
+        <v>0.215</v>
       </c>
       <c r="H21" t="n">
-        <v>0.016</v>
+        <v>0.077</v>
       </c>
       <c r="I21" t="n">
-        <v>0.136</v>
+        <v>0.111</v>
       </c>
       <c r="J21" t="n">
-        <v>0.266</v>
+        <v>0.211</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5579999999999999</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>cumberland</t>
+          <t>franklin</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1160420</v>
+        <v>346746</v>
       </c>
       <c r="D22" t="n">
-        <v>38918</v>
+        <v>12076</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F22" t="n">
-        <v>42041</v>
+        <v>22041</v>
       </c>
       <c r="G22" t="n">
-        <v>0.031</v>
+        <v>0.123</v>
       </c>
       <c r="H22" t="n">
-        <v>0.032</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>0.183</v>
+        <v>0.102</v>
       </c>
       <c r="J22" t="n">
-        <v>0.192</v>
+        <v>0.156</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>dauphin</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1762119</v>
+        <v>181194</v>
       </c>
       <c r="D23" t="n">
-        <v>56991</v>
+        <v>6499</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F23" t="n">
-        <v>42043</v>
+        <v>22043</v>
       </c>
       <c r="G23" t="n">
-        <v>0.032</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0.023</v>
+        <v>0.041</v>
       </c>
       <c r="I23" t="n">
-        <v>0.258</v>
+        <v>0.109</v>
       </c>
       <c r="J23" t="n">
-        <v>0.147</v>
+        <v>0.229</v>
       </c>
       <c r="K23" t="n">
-        <v>0.539</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>delaware</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4492587</v>
+        <v>812386</v>
       </c>
       <c r="D24" t="n">
-        <v>230655</v>
+        <v>24214</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F24" t="n">
-        <v>42045</v>
+        <v>22045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01</v>
+        <v>0.112</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>0.044</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>0.123</v>
+        <v>0.253</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8140000000000001</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>elk</t>
+          <t>iberville</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>132918</v>
+        <v>452618</v>
       </c>
       <c r="D25" t="n">
-        <v>1882</v>
+        <v>16878</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F25" t="n">
-        <v>42047</v>
+        <v>22047</v>
       </c>
       <c r="G25" t="n">
-        <v>0.055</v>
+        <v>0.061</v>
       </c>
       <c r="H25" t="n">
-        <v>0.016</v>
+        <v>0.021</v>
       </c>
       <c r="I25" t="n">
         <v>0.08400000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="K25" t="n">
-        <v>0.695</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>erie</t>
+          <t>jackson</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1186019</v>
+        <v>207331</v>
       </c>
       <c r="D26" t="n">
-        <v>23267</v>
+        <v>6850</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F26" t="n">
-        <v>42049</v>
+        <v>22049</v>
       </c>
       <c r="G26" t="n">
-        <v>0.016</v>
+        <v>0.116</v>
       </c>
       <c r="H26" t="n">
-        <v>0.025</v>
+        <v>0.083</v>
       </c>
       <c r="I26" t="n">
-        <v>0.057</v>
+        <v>0.127</v>
       </c>
       <c r="J26" t="n">
-        <v>0.136</v>
+        <v>0.29</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7659999999999999</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>fayette</t>
+          <t>jefferson</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>668239</v>
+        <v>5655321</v>
       </c>
       <c r="D27" t="n">
-        <v>11547</v>
+        <v>171184</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F27" t="n">
-        <v>42051</v>
+        <v>22051</v>
       </c>
       <c r="G27" t="n">
-        <v>0.053</v>
+        <v>0.044</v>
       </c>
       <c r="H27" t="n">
-        <v>0.064</v>
+        <v>0.031</v>
       </c>
       <c r="I27" t="n">
-        <v>0.144</v>
+        <v>0.066</v>
       </c>
       <c r="J27" t="n">
-        <v>0.161</v>
+        <v>0.174</v>
       </c>
       <c r="K27" t="n">
-        <v>0.578</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>jefferson davis</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>48879</v>
+        <v>360125</v>
       </c>
       <c r="D28" t="n">
-        <v>619</v>
+        <v>10727</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F28" t="n">
-        <v>42053</v>
+        <v>22053</v>
       </c>
       <c r="G28" t="n">
-        <v>0.016</v>
+        <v>0.249</v>
       </c>
       <c r="H28" t="n">
-        <v>0.008</v>
+        <v>0.111</v>
       </c>
       <c r="I28" t="n">
-        <v>0.158</v>
+        <v>0.09</v>
       </c>
       <c r="J28" t="n">
         <v>0.196</v>
       </c>
       <c r="K28" t="n">
-        <v>0.622</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>franklin</t>
+          <t>lafayette</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1009022</v>
+        <v>2599631</v>
       </c>
       <c r="D29" t="n">
-        <v>27679</v>
+        <v>33958</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F29" t="n">
-        <v>42055</v>
+        <v>22055</v>
       </c>
       <c r="G29" t="n">
-        <v>0.023</v>
+        <v>0.062</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04</v>
+        <v>0.083</v>
       </c>
       <c r="I29" t="n">
-        <v>0.08199999999999999</v>
+        <v>0.105</v>
       </c>
       <c r="J29" t="n">
-        <v>0.248</v>
+        <v>0.217</v>
       </c>
       <c r="K29" t="n">
-        <v>0.607</v>
+        <v>0.5329999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>fulton</t>
+          <t>lafourche</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>67861</v>
+        <v>1065254</v>
       </c>
       <c r="D30" t="n">
-        <v>1170</v>
+        <v>34584</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F30" t="n">
-        <v>42057</v>
+        <v>22057</v>
       </c>
       <c r="G30" t="n">
-        <v>0.013</v>
+        <v>0.078</v>
       </c>
       <c r="H30" t="n">
-        <v>0.145</v>
+        <v>0.039</v>
       </c>
       <c r="I30" t="n">
-        <v>0.053</v>
+        <v>0.159</v>
       </c>
       <c r="J30" t="n">
-        <v>0.23</v>
+        <v>0.151</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5589999999999999</v>
+        <v>0.573</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>greene</t>
+          <t>lasalle</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>167384</v>
+        <v>154784</v>
       </c>
       <c r="D31" t="n">
-        <v>1538</v>
+        <v>3052</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F31" t="n">
-        <v>42059</v>
+        <v>22059</v>
       </c>
       <c r="G31" t="n">
-        <v>0.104</v>
+        <v>0.08199999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0.11</v>
+        <v>0.035</v>
       </c>
       <c r="I31" t="n">
-        <v>0.187</v>
+        <v>0.08900000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>0.124</v>
+        <v>0.223</v>
       </c>
       <c r="K31" t="n">
-        <v>0.475</v>
+        <v>0.5710000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>huntingdon</t>
+          <t>lincoln</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>336420</v>
+        <v>453797</v>
       </c>
       <c r="D32" t="n">
-        <v>8656</v>
+        <v>12596</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F32" t="n">
-        <v>42061</v>
+        <v>22061</v>
       </c>
       <c r="G32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.102</v>
       </c>
       <c r="H32" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I32" t="n">
-        <v>0.155</v>
+        <v>0.111</v>
       </c>
       <c r="J32" t="n">
-        <v>0.232</v>
+        <v>0.29</v>
       </c>
       <c r="K32" t="n">
-        <v>0.483</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>indiana</t>
+          <t>livingston</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>425746</v>
+        <v>1251098</v>
       </c>
       <c r="D33" t="n">
-        <v>11022</v>
+        <v>21820</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F33" t="n">
-        <v>42063</v>
+        <v>22063</v>
       </c>
       <c r="G33" t="n">
-        <v>0.015</v>
+        <v>0.06</v>
       </c>
       <c r="H33" t="n">
-        <v>0.047</v>
+        <v>0.043</v>
       </c>
       <c r="I33" t="n">
-        <v>0.066</v>
+        <v>0.144</v>
       </c>
       <c r="J33" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="K33" t="n">
-        <v>0.652</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>jefferson</t>
+          <t>madison</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>171745</v>
+        <v>225313</v>
       </c>
       <c r="D34" t="n">
-        <v>3860</v>
+        <v>2843</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F34" t="n">
-        <v>42065</v>
+        <v>22065</v>
       </c>
       <c r="G34" t="n">
-        <v>0.083</v>
+        <v>0.034</v>
       </c>
       <c r="H34" t="n">
-        <v>0.046</v>
+        <v>0.068</v>
       </c>
       <c r="I34" t="n">
-        <v>0.142</v>
+        <v>0.109</v>
       </c>
       <c r="J34" t="n">
-        <v>0.197</v>
+        <v>0.172</v>
       </c>
       <c r="K34" t="n">
-        <v>0.531</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>juniata</t>
+          <t>morehouse</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>142724</v>
+        <v>277407</v>
       </c>
       <c r="D35" t="n">
-        <v>5219</v>
+        <v>7018</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F35" t="n">
-        <v>42067</v>
+        <v>22067</v>
       </c>
       <c r="G35" t="n">
-        <v>0.065</v>
+        <v>0.039</v>
       </c>
       <c r="H35" t="n">
-        <v>0.068</v>
+        <v>0.105</v>
       </c>
       <c r="I35" t="n">
-        <v>0.093</v>
+        <v>0.124</v>
       </c>
       <c r="J35" t="n">
-        <v>0.214</v>
+        <v>0.166</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5660000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>lackawanna</t>
+          <t>natchitoches</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1227985</v>
+        <v>401965</v>
       </c>
       <c r="D36" t="n">
-        <v>65672</v>
+        <v>9167</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F36" t="n">
-        <v>42069</v>
+        <v>22069</v>
       </c>
       <c r="G36" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.096</v>
       </c>
       <c r="H36" t="n">
-        <v>0.006</v>
+        <v>0.063</v>
       </c>
       <c r="I36" t="n">
-        <v>0.039</v>
+        <v>0.113</v>
       </c>
       <c r="J36" t="n">
-        <v>0.106</v>
+        <v>0.167</v>
       </c>
       <c r="K36" t="n">
-        <v>0.843</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>lancaster</t>
+          <t>orleans</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3666403</v>
+        <v>4077264</v>
       </c>
       <c r="D37" t="n">
-        <v>144237</v>
+        <v>179788</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F37" t="n">
-        <v>42071</v>
+        <v>22071</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.019</v>
       </c>
       <c r="H37" t="n">
-        <v>0.013</v>
+        <v>0.034</v>
       </c>
       <c r="I37" t="n">
-        <v>0.05400000000000001</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>0.172</v>
+        <v>0.206</v>
       </c>
       <c r="K37" t="n">
-        <v>0.7240000000000001</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>lawrence</t>
+          <t>ouachita</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>435194</v>
+        <v>2066319</v>
       </c>
       <c r="D38" t="n">
-        <v>14125</v>
+        <v>46695</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F38" t="n">
-        <v>42073</v>
+        <v>22073</v>
       </c>
       <c r="G38" t="n">
-        <v>0.034</v>
+        <v>0.076</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.098</v>
       </c>
       <c r="I38" t="n">
-        <v>0.093</v>
+        <v>0.121</v>
       </c>
       <c r="J38" t="n">
-        <v>0.301</v>
+        <v>0.229</v>
       </c>
       <c r="K38" t="n">
-        <v>0.503</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>lebanon</t>
+          <t>plaquemines</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1123872</v>
+        <v>249334</v>
       </c>
       <c r="D39" t="n">
-        <v>24419</v>
+        <v>5788</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F39" t="n">
-        <v>42075</v>
+        <v>22075</v>
       </c>
       <c r="G39" t="n">
-        <v>0.026</v>
+        <v>0.065</v>
       </c>
       <c r="H39" t="n">
-        <v>0.008</v>
+        <v>0.035</v>
       </c>
       <c r="I39" t="n">
-        <v>0.062</v>
+        <v>0.165</v>
       </c>
       <c r="J39" t="n">
-        <v>0.178</v>
+        <v>0.222</v>
       </c>
       <c r="K39" t="n">
-        <v>0.725</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>lehigh</t>
+          <t>pointe coupee</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2808145</v>
+        <v>300434</v>
       </c>
       <c r="D40" t="n">
-        <v>107713</v>
+        <v>11591</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F40" t="n">
-        <v>42077</v>
+        <v>22077</v>
       </c>
       <c r="G40" t="n">
-        <v>0.014</v>
+        <v>0.044</v>
       </c>
       <c r="H40" t="n">
-        <v>0.004</v>
+        <v>0.08199999999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>0.053</v>
+        <v>0.068</v>
       </c>
       <c r="J40" t="n">
-        <v>0.103</v>
+        <v>0.198</v>
       </c>
       <c r="K40" t="n">
-        <v>0.826</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>luzerne</t>
+          <t>rapides</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2234753</v>
+        <v>1311839</v>
       </c>
       <c r="D41" t="n">
-        <v>76018</v>
+        <v>39335</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F41" t="n">
-        <v>42079</v>
+        <v>22079</v>
       </c>
       <c r="G41" t="n">
-        <v>0.016</v>
+        <v>0.106</v>
       </c>
       <c r="H41" t="n">
-        <v>0.024</v>
+        <v>0.046</v>
       </c>
       <c r="I41" t="n">
-        <v>0.045</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="J41" t="n">
-        <v>0.136</v>
+        <v>0.236</v>
       </c>
       <c r="K41" t="n">
-        <v>0.779</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>lycoming</t>
+          <t>red river</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>574234</v>
+        <v>105165</v>
       </c>
       <c r="D42" t="n">
-        <v>15008</v>
+        <v>5536</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F42" t="n">
-        <v>42081</v>
+        <v>22081</v>
       </c>
       <c r="G42" t="n">
-        <v>0.062</v>
+        <v>0.068</v>
       </c>
       <c r="H42" t="n">
-        <v>0.057</v>
+        <v>0.081</v>
       </c>
       <c r="I42" t="n">
-        <v>0.06</v>
+        <v>0.135</v>
       </c>
       <c r="J42" t="n">
-        <v>0.207</v>
+        <v>0.189</v>
       </c>
       <c r="K42" t="n">
-        <v>0.614</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>mckean</t>
+          <t>richland</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>154705</v>
+        <v>258879</v>
       </c>
       <c r="D43" t="n">
-        <v>2627</v>
+        <v>4932</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F43" t="n">
-        <v>42083</v>
+        <v>22083</v>
       </c>
       <c r="G43" t="n">
-        <v>0.012</v>
+        <v>0.066</v>
       </c>
       <c r="H43" t="n">
-        <v>0.004</v>
+        <v>0.08</v>
       </c>
       <c r="I43" t="n">
-        <v>0.03</v>
+        <v>0.126</v>
       </c>
       <c r="J43" t="n">
-        <v>0.134</v>
+        <v>0.194</v>
       </c>
       <c r="K43" t="n">
-        <v>0.82</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>mercer</t>
+          <t>sabine</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>582181</v>
+        <v>283802</v>
       </c>
       <c r="D44" t="n">
-        <v>14364</v>
+        <v>4952</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F44" t="n">
-        <v>42085</v>
+        <v>22085</v>
       </c>
       <c r="G44" t="n">
-        <v>0.028</v>
+        <v>0.098</v>
       </c>
       <c r="H44" t="n">
-        <v>0.044</v>
+        <v>0.08</v>
       </c>
       <c r="I44" t="n">
-        <v>0.094</v>
+        <v>0.113</v>
       </c>
       <c r="J44" t="n">
-        <v>0.215</v>
+        <v>0.145</v>
       </c>
       <c r="K44" t="n">
-        <v>0.62</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>mifflin</t>
+          <t>st. bernard</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>316504</v>
+        <v>434755</v>
       </c>
       <c r="D45" t="n">
-        <v>9280</v>
+        <v>8946</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F45" t="n">
-        <v>42087</v>
+        <v>22087</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.035</v>
       </c>
       <c r="H45" t="n">
-        <v>0.049</v>
+        <v>0.075</v>
       </c>
       <c r="I45" t="n">
-        <v>0.129</v>
+        <v>0.136</v>
       </c>
       <c r="J45" t="n">
-        <v>0.171</v>
+        <v>0.23</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5670000000000001</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>monroe</t>
+          <t>st. charles</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>883284</v>
+        <v>596575</v>
       </c>
       <c r="D46" t="n">
-        <v>41572</v>
+        <v>18090</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F46" t="n">
-        <v>42089</v>
+        <v>22089</v>
       </c>
       <c r="G46" t="n">
-        <v>0.019</v>
+        <v>0.093</v>
       </c>
       <c r="H46" t="n">
-        <v>0.047</v>
+        <v>0.048</v>
       </c>
       <c r="I46" t="n">
-        <v>0.052</v>
+        <v>0.027</v>
       </c>
       <c r="J46" t="n">
-        <v>0.061</v>
+        <v>0.165</v>
       </c>
       <c r="K46" t="n">
-        <v>0.8220000000000001</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>montgomery</t>
+          <t>st. helena</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5230111</v>
+        <v>110978</v>
       </c>
       <c r="D47" t="n">
-        <v>266248</v>
+        <v>917</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F47" t="n">
-        <v>42091</v>
+        <v>22091</v>
       </c>
       <c r="G47" t="n">
-        <v>0.016</v>
+        <v>0.064</v>
       </c>
       <c r="H47" t="n">
-        <v>0.019</v>
+        <v>0.126</v>
       </c>
       <c r="I47" t="n">
-        <v>0.044</v>
+        <v>0.138</v>
       </c>
       <c r="J47" t="n">
-        <v>0.16</v>
+        <v>0.237</v>
       </c>
       <c r="K47" t="n">
-        <v>0.7609999999999999</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>montour</t>
+          <t>st. james</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>126309</v>
+        <v>243884</v>
       </c>
       <c r="D48" t="n">
-        <v>3320</v>
+        <v>10687</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F48" t="n">
-        <v>42093</v>
+        <v>22093</v>
       </c>
       <c r="G48" t="n">
-        <v>0.042</v>
+        <v>0.034</v>
       </c>
       <c r="H48" t="n">
-        <v>0.022</v>
+        <v>0.099</v>
       </c>
       <c r="I48" t="n">
-        <v>0.079</v>
+        <v>0.202</v>
       </c>
       <c r="J48" t="n">
-        <v>0.143</v>
+        <v>0.061</v>
       </c>
       <c r="K48" t="n">
-        <v>0.7140000000000001</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>northampton</t>
+          <t>st. john the baptist</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2273136</v>
+        <v>506355</v>
       </c>
       <c r="D49" t="n">
-        <v>94093</v>
+        <v>30378</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F49" t="n">
-        <v>42095</v>
+        <v>22095</v>
       </c>
       <c r="G49" t="n">
-        <v>0.015</v>
+        <v>0.096</v>
       </c>
       <c r="H49" t="n">
-        <v>0.012</v>
+        <v>0.059</v>
       </c>
       <c r="I49" t="n">
-        <v>0.034</v>
+        <v>0.19</v>
       </c>
       <c r="J49" t="n">
-        <v>0.118</v>
+        <v>0.079</v>
       </c>
       <c r="K49" t="n">
-        <v>0.8220000000000001</v>
+        <v>0.5770000000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>northumberland</t>
+          <t>st. landry</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>560790</v>
+        <v>990848</v>
       </c>
       <c r="D50" t="n">
-        <v>26168</v>
+        <v>35671</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F50" t="n">
-        <v>42097</v>
+        <v>22097</v>
       </c>
       <c r="G50" t="n">
         <v>0.064</v>
       </c>
       <c r="H50" t="n">
-        <v>0.013</v>
+        <v>0.105</v>
       </c>
       <c r="I50" t="n">
-        <v>0.078</v>
+        <v>0.117</v>
       </c>
       <c r="J50" t="n">
-        <v>0.197</v>
+        <v>0.199</v>
       </c>
       <c r="K50" t="n">
-        <v>0.649</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>perry</t>
+          <t>st. martin</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>177883</v>
+        <v>608031</v>
       </c>
       <c r="D51" t="n">
-        <v>4396</v>
+        <v>16505</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F51" t="n">
-        <v>42099</v>
+        <v>22099</v>
       </c>
       <c r="G51" t="n">
-        <v>0.035</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H51" t="n">
-        <v>0.017</v>
+        <v>0.11</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1</v>
+        <v>0.096</v>
       </c>
       <c r="J51" t="n">
-        <v>0.199</v>
+        <v>0.178</v>
       </c>
       <c r="K51" t="n">
-        <v>0.649</v>
+        <v>0.5479999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>philadelphia</t>
+          <t>st. mary</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>14485743</v>
+        <v>524521</v>
       </c>
       <c r="D52" t="n">
-        <v>548470</v>
+        <v>20472</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F52" t="n">
-        <v>42101</v>
+        <v>22101</v>
       </c>
       <c r="G52" t="n">
-        <v>0.023</v>
+        <v>0.066</v>
       </c>
       <c r="H52" t="n">
-        <v>0.012</v>
+        <v>0.02</v>
       </c>
       <c r="I52" t="n">
-        <v>0.051</v>
+        <v>0.179</v>
       </c>
       <c r="J52" t="n">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="K52" t="n">
-        <v>0.794</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>pike</t>
+          <t>st. tammany</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>244724</v>
+        <v>2353074</v>
       </c>
       <c r="D53" t="n">
-        <v>7377</v>
+        <v>75162</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F53" t="n">
-        <v>42103</v>
+        <v>22103</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01</v>
+        <v>0.031</v>
       </c>
       <c r="H53" t="n">
-        <v>0.013</v>
+        <v>0.073</v>
       </c>
       <c r="I53" t="n">
-        <v>0.036</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="J53" t="n">
-        <v>0.165</v>
+        <v>0.211</v>
       </c>
       <c r="K53" t="n">
-        <v>0.777</v>
+        <v>0.611</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>potter</t>
+          <t>tangipahoa</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>54181</v>
+        <v>1395519</v>
       </c>
       <c r="D54" t="n">
-        <v>1118</v>
+        <v>31994</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F54" t="n">
-        <v>42105</v>
+        <v>22105</v>
       </c>
       <c r="G54" t="n">
-        <v>0.061</v>
+        <v>0.066</v>
       </c>
       <c r="H54" t="n">
-        <v>0.011</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="I54" t="n">
-        <v>0.061</v>
+        <v>0.103</v>
       </c>
       <c r="J54" t="n">
-        <v>0.12</v>
+        <v>0.193</v>
       </c>
       <c r="K54" t="n">
-        <v>0.747</v>
+        <v>0.5660000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>schuylkill</t>
+          <t>tensas</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>896876</v>
+        <v>42956</v>
       </c>
       <c r="D55" t="n">
-        <v>32602</v>
+        <v>495</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F55" t="n">
-        <v>42107</v>
+        <v>22107</v>
       </c>
       <c r="G55" t="n">
-        <v>0.066</v>
+        <v>0.081</v>
       </c>
       <c r="H55" t="n">
-        <v>0.002</v>
+        <v>0.064</v>
       </c>
       <c r="I55" t="n">
-        <v>0.048</v>
+        <v>0.097</v>
       </c>
       <c r="J55" t="n">
-        <v>0.173</v>
+        <v>0.134</v>
       </c>
       <c r="K55" t="n">
-        <v>0.711</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>snyder</t>
+          <t>terrebonne</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>202000</v>
+        <v>1056298</v>
       </c>
       <c r="D56" t="n">
-        <v>4849</v>
+        <v>30980</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F56" t="n">
-        <v>42109</v>
+        <v>22109</v>
       </c>
       <c r="G56" t="n">
-        <v>0.062</v>
+        <v>0.068</v>
       </c>
       <c r="H56" t="n">
-        <v>0.036</v>
+        <v>0.052</v>
       </c>
       <c r="I56" t="n">
-        <v>0.104</v>
+        <v>0.14</v>
       </c>
       <c r="J56" t="n">
-        <v>0.226</v>
+        <v>0.221</v>
       </c>
       <c r="K56" t="n">
-        <v>0.5720000000000001</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>somerset</t>
+          <t>union</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>421386</v>
+        <v>297688</v>
       </c>
       <c r="D57" t="n">
-        <v>8258</v>
+        <v>12410</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F57" t="n">
-        <v>42111</v>
+        <v>22111</v>
       </c>
       <c r="G57" t="n">
-        <v>0.041</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0.04</v>
+        <v>0.142</v>
       </c>
       <c r="I57" t="n">
-        <v>0.188</v>
+        <v>0.106</v>
       </c>
       <c r="J57" t="n">
-        <v>0.267</v>
+        <v>0.244</v>
       </c>
       <c r="K57" t="n">
-        <v>0.464</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>sullivan</t>
+          <t>vermilion</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>16123</v>
+        <v>551105</v>
       </c>
       <c r="D58" t="n">
-        <v>446</v>
+        <v>13965</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F58" t="n">
-        <v>42113</v>
+        <v>22113</v>
       </c>
       <c r="G58" t="n">
-        <v>0.025</v>
+        <v>0.076</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035</v>
+        <v>0.08800000000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>0.038</v>
+        <v>0.115</v>
       </c>
       <c r="J58" t="n">
-        <v>0.141</v>
+        <v>0.271</v>
       </c>
       <c r="K58" t="n">
-        <v>0.76</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>susquehanna</t>
+          <t>vernon</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>141420</v>
+        <v>307041</v>
       </c>
       <c r="D59" t="n">
-        <v>8338</v>
+        <v>12089</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F59" t="n">
-        <v>42115</v>
+        <v>22115</v>
       </c>
       <c r="G59" t="n">
-        <v>0.046</v>
+        <v>0.092</v>
       </c>
       <c r="H59" t="n">
-        <v>0.029</v>
+        <v>0.066</v>
       </c>
       <c r="I59" t="n">
-        <v>0.038</v>
+        <v>0.145</v>
       </c>
       <c r="J59" t="n">
-        <v>0.065</v>
+        <v>0.244</v>
       </c>
       <c r="K59" t="n">
-        <v>0.8220000000000001</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>tioga</t>
+          <t>washington</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>169194</v>
+        <v>502030</v>
       </c>
       <c r="D60" t="n">
-        <v>5555</v>
+        <v>19201</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F60" t="n">
-        <v>42117</v>
+        <v>22117</v>
       </c>
       <c r="G60" t="n">
-        <v>0.098</v>
+        <v>0.103</v>
       </c>
       <c r="H60" t="n">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
       <c r="I60" t="n">
-        <v>0.111</v>
+        <v>0.148</v>
       </c>
       <c r="J60" t="n">
-        <v>0.183</v>
+        <v>0.242</v>
       </c>
       <c r="K60" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.461</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>union</t>
+          <t>webster</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>319264</v>
+        <v>414532</v>
       </c>
       <c r="D61" t="n">
-        <v>4559</v>
+        <v>9810</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F61" t="n">
-        <v>42119</v>
+        <v>22119</v>
       </c>
       <c r="G61" t="n">
-        <v>0.078</v>
+        <v>0.134</v>
       </c>
       <c r="H61" t="n">
-        <v>0.032</v>
+        <v>0.044</v>
       </c>
       <c r="I61" t="n">
-        <v>0.103</v>
+        <v>0.063</v>
       </c>
       <c r="J61" t="n">
-        <v>0.211</v>
+        <v>0.265</v>
       </c>
       <c r="K61" t="n">
-        <v>0.5760000000000001</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>venango</t>
+          <t>west baton rouge</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>209112</v>
+        <v>282170</v>
       </c>
       <c r="D62" t="n">
-        <v>3808</v>
+        <v>11586</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F62" t="n">
-        <v>42121</v>
+        <v>22121</v>
       </c>
       <c r="G62" t="n">
-        <v>0.004</v>
+        <v>0.044</v>
       </c>
       <c r="H62" t="n">
-        <v>0.015</v>
+        <v>0.04</v>
       </c>
       <c r="I62" t="n">
-        <v>0.115</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J62" t="n">
-        <v>0.152</v>
+        <v>0.197</v>
       </c>
       <c r="K62" t="n">
-        <v>0.7140000000000001</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>warren</t>
+          <t>west carroll</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>117411</v>
+        <v>125138</v>
       </c>
       <c r="D63" t="n">
-        <v>3676</v>
+        <v>3937</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F63" t="n">
-        <v>42123</v>
+        <v>22123</v>
       </c>
       <c r="G63" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.022</v>
       </c>
       <c r="H63" t="n">
-        <v>0.019</v>
+        <v>0.063</v>
       </c>
       <c r="I63" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="J63" t="n">
         <v>0.114</v>
       </c>
-      <c r="J63" t="n">
-        <v>0.224</v>
-      </c>
       <c r="K63" t="n">
-        <v>0.634</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>washington</t>
+          <t>west feliciana</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>951820</v>
+        <v>173879</v>
       </c>
       <c r="D64" t="n">
-        <v>15883</v>
+        <v>5844</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F64" t="n">
-        <v>42125</v>
+        <v>22125</v>
       </c>
       <c r="G64" t="n">
-        <v>0.052</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="H64" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="I64" t="n">
-        <v>0.045</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="J64" t="n">
-        <v>0.149</v>
+        <v>0.265</v>
       </c>
       <c r="K64" t="n">
-        <v>0.735</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>wayne</t>
+          <t>winn</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pennsylvania</t>
+          <t>louisiana</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>186577</v>
+        <v>189310</v>
       </c>
       <c r="D65" t="n">
-        <v>4169</v>
+        <v>4846</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F65" t="n">
-        <v>42127</v>
+        <v>22127</v>
       </c>
       <c r="G65" t="n">
-        <v>0.004</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="H65" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.106</v>
       </c>
       <c r="I65" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="J65" t="n">
-        <v>0.08</v>
+        <v>0.236</v>
       </c>
       <c r="K65" t="n">
-        <v>0.828</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>westmoreland</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>pennsylvania</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>1938497</v>
-      </c>
-      <c r="D66" t="n">
-        <v>46794</v>
-      </c>
-      <c r="E66" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F66" t="n">
-        <v>42129</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.6729999999999999</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>wyoming</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>pennsylvania</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>82132</v>
-      </c>
-      <c r="D67" t="n">
-        <v>4132</v>
-      </c>
-      <c r="E67" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F67" t="n">
-        <v>42131</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.07200000000000001</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.836</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>york</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>pennsylvania</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>2600415</v>
-      </c>
-      <c r="D68" t="n">
-        <v>58237</v>
-      </c>
-      <c r="E68" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="F68" t="n">
-        <v>42133</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.091</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.174</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.443</v>
       </c>
     </row>
   </sheetData>
